--- a/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.62</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1485,13 +1528,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002386-天原股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1713,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.62</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1729,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.91</v>
       </c>
     </row>
